--- a/etc/2025-09.xlsx
+++ b/etc/2025-09.xlsx
@@ -977,7 +977,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1020,6 +1020,12 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1050,7 +1056,7 @@
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
@@ -1096,13 +1102,25 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="59" fontId="5" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="1" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="59" fontId="5" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="5" fillId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1126,6 +1144,7 @@
       <rgbColor rgb="ffb7d6a3"/>
       <rgbColor rgb="fff4b083"/>
       <rgbColor rgb="fff7caac"/>
+      <rgbColor rgb="ffb7d6a3"/>
       <rgbColor rgb="ffadcdea"/>
       <rgbColor rgb="ffffdf7f"/>
     </indexedColors>
@@ -4193,11 +4212,11 @@
       </c>
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
-      <c r="H78" s="7">
-        <v>6819.003</v>
-      </c>
-      <c r="I78" s="7">
-        <v>1948.705</v>
+      <c r="H78" s="15">
+        <v>410.15</v>
+      </c>
+      <c r="I78" s="16">
+        <v>190.15</v>
       </c>
       <c r="J78" s="6"/>
     </row>
@@ -5829,14 +5848,14 @@
       </c>
       <c r="F141" s="10"/>
       <c r="G141" s="10"/>
-      <c r="H141" s="7">
-        <v>4734</v>
-      </c>
-      <c r="I141" s="7">
-        <v>4600</v>
-      </c>
-      <c r="J141" s="7">
-        <v>6222</v>
+      <c r="H141" s="15">
+        <v>128.28</v>
+      </c>
+      <c r="I141" s="17">
+        <v>101.46</v>
+      </c>
+      <c r="J141" s="18">
+        <v>446.13</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -5928,18 +5947,18 @@
       <c r="D145" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="E145" t="s" s="15">
+      <c r="E145" t="s" s="19">
         <v>291</v>
       </c>
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
-      <c r="H145" s="16">
+      <c r="H145" s="20">
         <v>6812.059</v>
       </c>
-      <c r="I145" s="16">
+      <c r="I145" s="20">
         <v>5471.716</v>
       </c>
-      <c r="J145" s="16">
+      <c r="J145" s="20">
         <v>8731.974</v>
       </c>
     </row>
@@ -5954,18 +5973,18 @@
       <c r="D146" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="E146" t="s" s="15">
+      <c r="E146" t="s" s="19">
         <v>292</v>
       </c>
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
-      <c r="H146" s="16">
+      <c r="H146" s="20">
         <v>7818.025</v>
       </c>
-      <c r="I146" s="16">
+      <c r="I146" s="20">
         <v>6572.479</v>
       </c>
-      <c r="J146" s="16">
+      <c r="J146" s="20">
         <v>10116.252</v>
       </c>
     </row>
@@ -5980,18 +5999,18 @@
       <c r="D147" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="E147" t="s" s="15">
+      <c r="E147" t="s" s="19">
         <v>293</v>
       </c>
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
-      <c r="H147" s="16">
+      <c r="H147" s="20">
         <v>6760.039</v>
       </c>
-      <c r="I147" s="16">
+      <c r="I147" s="20">
         <v>7008.001</v>
       </c>
-      <c r="J147" s="16">
+      <c r="J147" s="20">
         <v>8572.307000000001</v>
       </c>
     </row>
@@ -6006,14 +6025,14 @@
       <c r="D148" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="E148" t="s" s="15">
+      <c r="E148" t="s" s="19">
         <v>294</v>
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
-      <c r="H148" s="16"/>
-      <c r="I148" s="16"/>
-      <c r="J148" s="16"/>
+      <c r="H148" s="20"/>
+      <c r="I148" s="20"/>
+      <c r="J148" s="20"/>
     </row>
     <row r="149" ht="14" customHeight="1">
       <c r="A149" s="2"/>
@@ -6026,18 +6045,18 @@
       <c r="D149" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="E149" t="s" s="15">
+      <c r="E149" t="s" s="19">
         <v>295</v>
       </c>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
-      <c r="H149" s="16">
+      <c r="H149" s="20">
         <v>173644.241</v>
       </c>
-      <c r="I149" s="16">
+      <c r="I149" s="20">
         <v>3.087</v>
       </c>
-      <c r="J149" s="16">
+      <c r="J149" s="20">
         <v>0</v>
       </c>
     </row>
@@ -6052,18 +6071,18 @@
       <c r="D150" t="s" s="3">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="15">
+      <c r="E150" t="s" s="19">
         <v>296</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
-      <c r="H150" s="16">
+      <c r="H150" s="20">
         <v>60836.578</v>
       </c>
-      <c r="I150" s="16">
+      <c r="I150" s="20">
         <v>2.081</v>
       </c>
-      <c r="J150" s="16">
+      <c r="J150" s="20">
         <v>0</v>
       </c>
     </row>
@@ -6078,18 +6097,18 @@
       <c r="D151" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="E151" t="s" s="15">
+      <c r="E151" t="s" s="19">
         <v>297</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
-      <c r="H151" s="16">
+      <c r="H151" s="20">
         <v>9646.200000000001</v>
       </c>
-      <c r="I151" s="16">
-        <v>0</v>
-      </c>
-      <c r="J151" s="16">
+      <c r="I151" s="20">
+        <v>0</v>
+      </c>
+      <c r="J151" s="20">
         <v>0</v>
       </c>
     </row>
@@ -6104,18 +6123,18 @@
       <c r="D152" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="E152" t="s" s="15">
+      <c r="E152" t="s" s="19">
         <v>298</v>
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
-      <c r="H152" s="16">
+      <c r="H152" s="20">
         <v>27152.552</v>
       </c>
-      <c r="I152" s="16">
+      <c r="I152" s="20">
         <v>2.026</v>
       </c>
-      <c r="J152" s="16">
+      <c r="J152" s="20">
         <v>0</v>
       </c>
     </row>
@@ -6130,18 +6149,18 @@
       <c r="D153" t="s" s="3">
         <v>18</v>
       </c>
-      <c r="E153" t="s" s="15">
+      <c r="E153" t="s" s="19">
         <v>299</v>
       </c>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
-      <c r="H153" s="16">
+      <c r="H153" s="20">
         <v>80351.808999999994</v>
       </c>
-      <c r="I153" s="16">
-        <v>0</v>
-      </c>
-      <c r="J153" s="16">
+      <c r="I153" s="20">
+        <v>0</v>
+      </c>
+      <c r="J153" s="20">
         <v>0</v>
       </c>
     </row>
@@ -6156,18 +6175,18 @@
       <c r="D154" t="s" s="3">
         <v>20</v>
       </c>
-      <c r="E154" t="s" s="15">
+      <c r="E154" t="s" s="19">
         <v>300</v>
       </c>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
-      <c r="H154" s="16">
+      <c r="H154" s="20">
         <v>55034.433</v>
       </c>
-      <c r="I154" s="16">
+      <c r="I154" s="20">
         <v>2.919</v>
       </c>
-      <c r="J154" s="16">
+      <c r="J154" s="20">
         <v>0</v>
       </c>
     </row>
@@ -6182,18 +6201,18 @@
       <c r="D155" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="E155" t="s" s="17">
+      <c r="E155" t="s" s="21">
         <v>301</v>
       </c>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
-      <c r="H155" s="16">
+      <c r="H155" s="20">
         <v>16934.632</v>
       </c>
-      <c r="I155" s="16">
+      <c r="I155" s="20">
         <v>2.919</v>
       </c>
-      <c r="J155" s="16">
+      <c r="J155" s="20">
         <v>0</v>
       </c>
     </row>
@@ -6208,18 +6227,18 @@
       <c r="D156" t="s" s="3">
         <v>24</v>
       </c>
-      <c r="E156" t="s" s="15">
+      <c r="E156" t="s" s="19">
         <v>302</v>
       </c>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
-      <c r="H156" s="16">
+      <c r="H156" s="20">
         <v>44669.661</v>
       </c>
-      <c r="I156" s="16">
+      <c r="I156" s="20">
         <v>2.915</v>
       </c>
-      <c r="J156" s="16">
+      <c r="J156" s="20">
         <v>0</v>
       </c>
     </row>
@@ -6234,18 +6253,18 @@
       <c r="D157" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="E157" t="s" s="15">
+      <c r="E157" t="s" s="19">
         <v>303</v>
       </c>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
-      <c r="H157" s="16">
+      <c r="H157" s="20">
         <v>4295.248</v>
       </c>
-      <c r="I157" s="16">
+      <c r="I157" s="20">
         <v>5250.948</v>
       </c>
-      <c r="J157" s="16">
+      <c r="J157" s="20">
         <v>5473.991</v>
       </c>
     </row>
@@ -6260,18 +6279,18 @@
       <c r="D158" t="s" s="3">
         <v>28</v>
       </c>
-      <c r="E158" t="s" s="15">
+      <c r="E158" t="s" s="19">
         <v>304</v>
       </c>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
-      <c r="H158" s="16">
+      <c r="H158" s="20">
         <v>1723.056</v>
       </c>
-      <c r="I158" s="16">
+      <c r="I158" s="20">
         <v>1816.867</v>
       </c>
-      <c r="J158" s="16">
+      <c r="J158" s="20">
         <v>2251.831</v>
       </c>
     </row>
@@ -6286,18 +6305,18 @@
       <c r="D159" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="E159" t="s" s="15">
+      <c r="E159" t="s" s="19">
         <v>305</v>
       </c>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
-      <c r="H159" s="16">
+      <c r="H159" s="20">
         <v>4870.716</v>
       </c>
-      <c r="I159" s="16">
+      <c r="I159" s="20">
         <v>5152.295</v>
       </c>
-      <c r="J159" s="16">
+      <c r="J159" s="20">
         <v>6270.432</v>
       </c>
     </row>
@@ -6312,18 +6331,18 @@
       <c r="D160" t="s" s="3">
         <v>32</v>
       </c>
-      <c r="E160" t="s" s="15">
+      <c r="E160" t="s" s="19">
         <v>306</v>
       </c>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
-      <c r="H160" s="16">
+      <c r="H160" s="20">
         <v>4535.51</v>
       </c>
-      <c r="I160" s="16">
+      <c r="I160" s="20">
         <v>5083.891</v>
       </c>
-      <c r="J160" s="16">
+      <c r="J160" s="20">
         <v>5832.73</v>
       </c>
     </row>
@@ -6338,18 +6357,18 @@
       <c r="D161" t="s" s="3">
         <v>34</v>
       </c>
-      <c r="E161" t="s" s="15">
+      <c r="E161" t="s" s="19">
         <v>307</v>
       </c>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
-      <c r="H161" s="16">
+      <c r="H161" s="20">
         <v>3035.526</v>
       </c>
-      <c r="I161" s="16">
+      <c r="I161" s="20">
         <v>3493.002</v>
       </c>
-      <c r="J161" s="16">
+      <c r="J161" s="20">
         <v>3813.688</v>
       </c>
     </row>
